--- a/files/users.xlsx
+++ b/files/users.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -416,55 +416,45 @@
           <t>AlonBrand</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1234</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cd</t>
+          <t>123</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ron</t>
+          <t>Chango</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1234</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OfirLuke</t>
+          <t>Brand</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ofir1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2323</t>
+          <t>1234</t>
         </is>
       </c>
     </row>

--- a/files/users.xlsx
+++ b/files/users.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="A2:B6"/>
@@ -458,6 +458,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/users.xlsx
+++ b/files/users.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="A2:B6"/>
@@ -470,6 +470,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tal</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
